--- a/Shading Trees/sens_Number of coffee plants per hectare/case_2220.xlsx
+++ b/Shading Trees/sens_Number of coffee plants per hectare/case_2220.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\New Cases\Shading Trees\sens_Number of coffee plants per hectare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Shading Trees\sens_Number of coffee plants per hectare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C722D-8C2B-4351-B907-023D91A01774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F42234F-F727-42F3-B30D-D01C85167320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1117,6 +1117,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2049,10 +2052,10 @@
       <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2535,10 +2538,10 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,7 +2595,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2613,7 +2616,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="8" t="s">
         <v>213</v>
       </c>
@@ -2632,7 +2635,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8" t="s">
         <v>214</v>
       </c>
@@ -2653,7 +2656,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>217</v>
       </c>
@@ -2674,7 +2677,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="8" t="s">
         <v>220</v>
       </c>
@@ -2701,7 +2704,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8" t="s">
         <v>222</v>
       </c>
@@ -2723,7 +2726,7 @@
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8" t="s">
         <v>225</v>
       </c>
@@ -2755,7 +2758,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="8" t="s">
         <v>229</v>
       </c>
@@ -2777,7 +2780,7 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8" t="s">
         <v>231</v>
       </c>
@@ -2798,7 +2801,7 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="8" t="s">
         <v>234</v>
       </c>
@@ -2815,7 +2818,7 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="8" t="s">
         <v>235</v>
       </c>
@@ -2832,7 +2835,7 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
         <v>236</v>
       </c>
@@ -2851,7 +2854,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="8" t="s">
         <v>238</v>
       </c>
@@ -2868,7 +2871,7 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="8" t="s">
         <v>239</v>
       </c>
@@ -2887,7 +2890,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="8" t="s">
         <v>240</v>
       </c>
@@ -2904,7 +2907,7 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="8" t="s">
         <v>241</v>
       </c>
@@ -2923,13 +2926,13 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="43">
         <v>1</v>
       </c>
       <c r="D18" s="9"/>
@@ -2942,7 +2945,7 @@
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="9" t="s">
         <v>245</v>
       </c>
@@ -2963,7 +2966,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="9" t="s">
         <v>247</v>
       </c>
@@ -2985,7 +2988,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -3007,7 +3010,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="9" t="s">
         <v>250</v>
       </c>
@@ -3068,7 +3071,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="20" t="s">
         <v>254</v>
       </c>
@@ -3090,7 +3093,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="20" t="s">
         <v>256</v>
       </c>
@@ -3110,7 +3113,7 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="20" t="s">
         <v>257</v>
       </c>
@@ -3130,7 +3133,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="20" t="s">
         <v>257</v>
       </c>
@@ -3148,7 +3151,7 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="52" t="s">
         <v>258</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -3172,7 +3175,7 @@
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="24" t="s">
         <v>254</v>
       </c>
@@ -3194,7 +3197,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="24" t="s">
         <v>260</v>
       </c>
@@ -3215,7 +3218,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="24" t="s">
         <v>262</v>
       </c>

--- a/Shading Trees/sens_Number of coffee plants per hectare/case_2220.xlsx
+++ b/Shading Trees/sens_Number of coffee plants per hectare/case_2220.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Shading Trees\sens_Number of coffee plants per hectare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Shading Trees\sens_Number of coffee plants per hectare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F42234F-F727-42F3-B30D-D01C85167320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C058E6-09B1-4A2F-B136-D41835E3C628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="268">
   <si>
     <t>row</t>
   </si>
@@ -728,6 +729,9 @@
   </si>
   <si>
     <t>Sh/kg</t>
+  </si>
+  <si>
+    <t>numbeo</t>
   </si>
   <si>
     <t>Initial use of fruit of HR (HP)</t>
@@ -843,8 +847,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0;\-;\-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1011,7 +1015,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1057,6 +1061,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,9 +1135,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,7 +1511,7 @@
       </c>
       <c r="E2" s="1">
         <f>main!C35</f>
-        <v>-335.45639999999997</v>
+        <v>-4.9350649350647327E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1550,23 +1554,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="38">
         <f>main!C29</f>
-        <v>7545.1206600000014</v>
+        <v>1.1099999999999548</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,79 +1610,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="39">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="38">
         <f>-main!C30</f>
-        <v>0.02</v>
-      </c>
-      <c r="H2" s="41" t="s">
+        <v>2.9422988710692263E-6</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
+      <c r="A3" s="40">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="42">
         <f>main!C34</f>
-        <v>-0.49417871757925075</v>
-      </c>
-      <c r="H3" s="41" t="s">
+        <v>-1.0732063325722829E-4</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1718,70 +1722,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="42">
         <f>main!C32</f>
-        <v>-2.2539412375740076E-2</v>
-      </c>
-      <c r="G2" s="41" t="s">
+        <v>-3.3158843793851883E-6</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="42">
         <f>main!C33</f>
-        <v>3.1722135936226768E-2</v>
-      </c>
-      <c r="G3" s="41" t="s">
+        <v>4.6668002376532274E-6</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1815,11 +1819,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" style="25" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" style="26" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1849,7 +1853,7 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
@@ -1866,7 +1870,7 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>32</v>
       </c>
       <c r="E3" t="s">
@@ -1883,7 +1887,7 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E4" t="s">
@@ -1900,7 +1904,7 @@
       <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E5" t="s">
@@ -1917,7 +1921,7 @@
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="s">
@@ -1934,7 +1938,7 @@
       <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E7" t="s">
@@ -1951,7 +1955,7 @@
       <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
@@ -1968,7 +1972,7 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E9" t="s">
@@ -1985,7 +1989,7 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1999,7 +2003,7 @@
       <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2013,7 +2017,7 @@
       <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2027,7 +2031,7 @@
       <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2052,10 +2056,10 @@
       <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2538,10 +2542,10 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2572,7 +2576,7 @@
       <c r="D1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>203</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -2601,11 +2605,11 @@
       <c r="B2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="36">
         <v>0.5</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="29"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2620,11 +2624,11 @@
       <c r="B3" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="28">
         <v>0.25</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2639,13 +2643,13 @@
       <c r="B4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="36">
         <v>0.26500000000000001</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -2660,13 +2664,13 @@
       <c r="B5" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="36">
         <v>88278</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2681,23 +2685,23 @@
       <c r="B6" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="28">
         <v>2220</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="36">
         <v>1800</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="36">
         <v>2360</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="36">
         <v>140</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="36" t="s">
         <v>221</v>
       </c>
       <c r="J6" s="7"/>
@@ -2708,17 +2712,17 @@
       <c r="B7" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="36">
         <v>0.14000000000000001</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="7"/>
       <c r="K7" s="19" t="s">
         <v>224</v>
@@ -2730,25 +2734,25 @@
       <c r="B8" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="35">
-        <v>15</v>
+      <c r="C8" s="36">
+        <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="36">
         <v>15</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="36">
         <v>20</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="36">
         <v>1</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="36" t="s">
         <v>227</v>
       </c>
       <c r="J8" s="7"/>
@@ -2762,54 +2766,55 @@
       <c r="B9" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="35">
-        <v>7</v>
+      <c r="C9" s="36">
+        <f>162-7</f>
+        <v>155</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="7"/>
       <c r="K9" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="49"/>
       <c r="B10" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="35">
+        <v>232</v>
+      </c>
+      <c r="C10" s="36">
         <v>10410</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="29"/>
+        <v>233</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
       <c r="B11" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="35">
+        <v>235</v>
+      </c>
+      <c r="C11" s="36">
         <v>1.4</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2820,13 +2825,13 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
       <c r="B12" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="35">
+        <v>236</v>
+      </c>
+      <c r="C12" s="36">
         <v>1.4</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -2837,32 +2842,32 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C13" s="15">
         <v>800000</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
       <c r="B14" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C14" s="15">
         <v>8.3479305095333606E-2</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2871,15 +2876,15 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C15" s="15">
         <v>-0.08</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2890,15 +2895,15 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C16" s="15">
         <v>-0.02</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2907,36 +2912,36 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C17" s="15">
         <v>3.8</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="43">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1.471149435534613E-4</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2947,19 +2952,19 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C19" s="14">
         <v>1.4E-2</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>224</v>
@@ -2968,14 +2973,14 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="49"/>
       <c r="B20" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C20" s="14">
         <f>1-C11</f>
         <v>-0.39999999999999991</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2984,20 +2989,20 @@
         <v>227</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="49"/>
       <c r="B21" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C21" s="14">
         <f>1-C12</f>
         <v>-0.39999999999999991</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -3006,19 +3011,19 @@
         <v>227</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C22" s="14">
         <v>-0.4</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -3027,20 +3032,20 @@
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>251</v>
+      <c r="A23" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C23" s="17">
         <f>C5*C6*C3*(C7+C19)/1000</f>
         <v>7545.1206600000014</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="32"/>
+        <v>233</v>
+      </c>
+      <c r="E23" s="33"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -3049,38 +3054,38 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C24" s="10">
         <f>C9*C8*C6*C5*C3/1000000</f>
-        <v>5144.4004500000001</v>
+        <v>7594.1149500000001</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="32"/>
+        <v>233</v>
+      </c>
+      <c r="E24" s="33"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="16">
         <f>C16*C18</f>
-        <v>-0.02</v>
+        <v>-2.9422988710692263E-6</v>
       </c>
       <c r="D25" s="20"/>
-      <c r="E25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -3089,20 +3094,20 @@
         <v>227</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C26" s="20">
         <f>C14*C20*C18</f>
-        <v>-3.3391722038133433E-2</v>
+        <v>-4.9124213027928696E-6</v>
       </c>
       <c r="D26" s="20"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -3115,14 +3120,14 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="20">
         <f>C21*C14*C18</f>
-        <v>-3.3391722038133433E-2</v>
+        <v>-4.9124213027928696E-6</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -3133,16 +3138,16 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="20">
         <f>C22*C14*C18</f>
-        <v>-3.3391722038133446E-2</v>
+        <v>-4.9124213027928721E-6</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -3152,159 +3157,159 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B29" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="22">
+      <c r="B29" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="23">
         <f>C23*C18</f>
-        <v>7545.1206600000014</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24" t="s">
+        <v>1.1099999999999548</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="K29" s="24"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
-      <c r="B30" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="23">
+      <c r="B30" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="24">
         <f>C25</f>
-        <v>-0.02</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24" t="s">
+        <v>-2.9422988710692263E-6</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>255</v>
+      <c r="K30" s="25" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
-      <c r="B31" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="34">
+      <c r="B31" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="35">
         <v>0</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>261</v>
+      <c r="K31" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="25">
+        <f>-0.27*C14*C18</f>
+        <v>-3.3158843793851883E-6</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="24">
-        <f>-0.27*C14*C18</f>
-        <v>-2.2539412375740076E-2</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="35">
+        <f>0.38*C14*C18</f>
+        <v>4.6668002376532274E-6</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="34">
-        <f>0.38*C14*C18</f>
-        <v>3.1722135936226768E-2</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>261</v>
+      <c r="K33" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="34">
+      <c r="B34" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="35">
         <f>-C24*C18/C10</f>
-        <v>-0.49417871757925075</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24" t="s">
+        <v>-1.0732063325722829E-4</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="25" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="34">
+      <c r="B35" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="35">
         <f>-C17*C18*C5/1000</f>
-        <v>-335.45639999999997</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24" t="s">
+        <v>-4.9350649350647327E-2</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="25" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3316,6 +3321,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="K9" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
